--- a/output/adapt_lstm_one_item_400_2.xlsx
+++ b/output/adapt_lstm_one_item_400_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MSE_transfer_rt</t>
+          <t>MSE_transfer_coral</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>MSE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MAE_no_transfer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MAE_transfer_basic</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_transfer_rt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_sa</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_bw</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_nnw</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MSE_diff_basic</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MSE_diff_rt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_sa</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_bw</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_diff_nnw</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MAE_diff_basic</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_diff_rt</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_transfer_coral</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_sa</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_bw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_diff_nnw</t>
         </is>
       </c>
     </row>
@@ -497,34 +557,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.301733818210977</v>
+        <v>1.301926923014102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986811927592532</v>
+        <v>0.9989431818564546</v>
       </c>
       <c r="D2" t="n">
-        <v>1.178820124781513</v>
+        <v>1.137693001037905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.696330194699317</v>
+        <v>5.820702221270763</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6858502459862532</v>
+        <v>5.856413974995616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5257390071619426</v>
+        <v>6.142760710462269</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3030526254517234</v>
+        <v>0.6943027395987617</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1229136934294637</v>
+        <v>0.6901813189040737</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.01047994871306379</v>
+        <v>0.5502789966087731</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1705911875373745</v>
+        <v>0.822392764717888</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.808529699177241</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7930880846202476</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.3029837411576469</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1642339219761964</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.518775298256662</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.554487051981514</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.840833787448168</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.004121420694687905</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.1440237429899885</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1280900251191264</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1142269595784794</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.09878534502148595</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +630,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.789978731434997</v>
+        <v>0.7858089996152173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9985221746810399</v>
+        <v>1.012164272873996</v>
       </c>
       <c r="D3" t="n">
-        <v>3.230458197367339</v>
+        <v>2.777605296423082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5530104514365833</v>
+        <v>5.820702221270763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6630065797639138</v>
+        <v>5.856413974995616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9166264135304175</v>
+        <v>6.142760710462269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2085434432460429</v>
+        <v>0.5457719070059673</v>
       </c>
       <c r="I3" t="n">
-        <v>2.440479465932342</v>
+        <v>0.6718072620290712</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1099961283273304</v>
+        <v>0.9620219810251104</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3636159620938342</v>
+        <v>0.822392764717888</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.808529699177241</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7930880846202476</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.226355273258779</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.991796296807865</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.034893221655546</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.070604975380398</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.356951710847052</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1260353550231038</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.416250074019143</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2766208577119207</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2627577921712737</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2473161776142803</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +703,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.00847717581727</v>
+        <v>1.996350390516476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9929558099995864</v>
+        <v>0.9855601843336593</v>
       </c>
       <c r="D4" t="n">
-        <v>6.858703966456669</v>
+        <v>6.135886311364529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8451968323902862</v>
+        <v>5.820702221270763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.677410657258632</v>
+        <v>5.856413974995616</v>
       </c>
       <c r="G4" t="n">
-        <v>1.419120454842484</v>
+        <v>6.142760710462269</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.015521365817684</v>
+        <v>0.8411752455834071</v>
       </c>
       <c r="I4" t="n">
-        <v>4.850226790639399</v>
+        <v>0.6803765552195126</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1677861751316542</v>
+        <v>1.401427603590304</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5739236224521976</v>
+        <v>0.822392764717888</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.808529699177241</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7930880846202476</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.010790206182817</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.139535920848052</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.824351830754287</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.86006358447914</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.146410319945794</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1607986903638945</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5602523580068973</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.01878248086551904</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.03264554640616601</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.04808716096315946</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +776,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9685497370093098</v>
+        <v>0.9698881290922886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9935823368122992</v>
+        <v>0.9927559027195498</v>
       </c>
       <c r="D5" t="n">
-        <v>14.62026864449648</v>
+        <v>13.05127556167862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3816529114669949</v>
+        <v>5.820702221270763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4065249232007401</v>
+        <v>5.856413974995616</v>
       </c>
       <c r="G5" t="n">
-        <v>1.151765301856099</v>
+        <v>6.142760710462269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02503259980298944</v>
+        <v>0.3799394289281765</v>
       </c>
       <c r="I5" t="n">
-        <v>13.65171890748717</v>
+        <v>0.4098606503903026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0248720117337452</v>
+        <v>1.254331995984313</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7701123903891045</v>
+        <v>0.822392764717888</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.808529699177241</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7930880846202476</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02286777362726122</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.08138743258633</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.850814092178474</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.886525845903327</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.172872581369981</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.02992122146212611</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8743925670561368</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4424533357897115</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4285902702490645</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.4131486556920711</v>
       </c>
     </row>
     <row r="6">
@@ -645,34 +849,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.513573980194313</v>
+        <v>1.51415165254623</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004218275836683</v>
+        <v>1.003750476033903</v>
       </c>
       <c r="D6" t="n">
-        <v>8.868556061708391</v>
+        <v>8.282524188105244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5203617935033406</v>
+        <v>5.820702221270763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4641151648544323</v>
+        <v>5.856413974995616</v>
       </c>
       <c r="G6" t="n">
-        <v>1.094446592256816</v>
+        <v>6.142760710462269</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5093557043576304</v>
+        <v>0.5200546449324573</v>
       </c>
       <c r="I6" t="n">
-        <v>7.354982081514078</v>
+        <v>0.4667778334864473</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05624662864890823</v>
+        <v>1.155958107027304</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5740847987534755</v>
+        <v>0.822392764717888</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.808529699177241</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7930880846202476</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.5104011765123271</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.768372535559013</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.306550568724533</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.342262322449385</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.628609057916039</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.05327681144601004</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6359034620948468</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.3023381197854307</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2884750542447837</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2730334396877903</v>
       </c>
     </row>
   </sheetData>
